--- a/Consulta rápida/APARTADÓ PRECIOS REFERENCIA 2018.xlsx
+++ b/Consulta rápida/APARTADÓ PRECIOS REFERENCIA 2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAIME.SILVA\Documents\GitHub\FID\Dotaciones2019\Consulta rápida\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06A0005-62D2-4C2C-A0E7-236915B5BC62}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8E3B8A-697E-4A05-9DC6-C8C2EFCE191A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1326,9 +1326,6 @@
     <t>BLOQUES DE MADERA PEQUEÑOS</t>
   </si>
   <si>
-    <t>PRECIOS REFERENCIA 2018</t>
-  </si>
-  <si>
     <t>TOTAL</t>
   </si>
   <si>
@@ -1336,6 +1333,9 @@
   </si>
   <si>
     <t>151  A 300</t>
+  </si>
+  <si>
+    <t>PRECIOS REFERENCIA ABASTECIMIENTO 2018</t>
   </si>
 </sst>
 </file>
@@ -1638,6 +1638,13 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1647,13 +1654,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda [0]" xfId="1" builtinId="7"/>
@@ -1993,8 +1993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C227" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F243" sqref="F243"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2010,14 +2010,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="46"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="51"/>
     </row>
     <row r="2" spans="1:8" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
@@ -2039,10 +2039,10 @@
         <v>0</v>
       </c>
       <c r="G2" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="H2" s="17" t="s">
         <v>257</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2064,10 +2064,10 @@
       <c r="F3" s="29">
         <v>3</v>
       </c>
-      <c r="G3" s="47">
+      <c r="G3" s="44">
         <v>19081</v>
       </c>
-      <c r="H3" s="47">
+      <c r="H3" s="44">
         <f>+F3*G3</f>
         <v>57243</v>
       </c>
@@ -2091,10 +2091,10 @@
       <c r="F4" s="29">
         <v>3</v>
       </c>
-      <c r="G4" s="47">
+      <c r="G4" s="44">
         <v>11289.626105809637</v>
       </c>
-      <c r="H4" s="47">
+      <c r="H4" s="44">
         <f t="shared" ref="H4:H67" si="0">+F4*G4</f>
         <v>33868.878317428913</v>
       </c>
@@ -2118,10 +2118,10 @@
       <c r="F5" s="29">
         <v>2</v>
       </c>
-      <c r="G5" s="47">
+      <c r="G5" s="44">
         <v>181208.73052524071</v>
       </c>
-      <c r="H5" s="47">
+      <c r="H5" s="44">
         <f t="shared" si="0"/>
         <v>362417.46105048142</v>
       </c>
@@ -2145,10 +2145,10 @@
       <c r="F6" s="29">
         <v>2</v>
       </c>
-      <c r="G6" s="47">
+      <c r="G6" s="44">
         <v>21691.376476849287</v>
       </c>
-      <c r="H6" s="47">
+      <c r="H6" s="44">
         <f t="shared" si="0"/>
         <v>43382.752953698575</v>
       </c>
@@ -2172,10 +2172,10 @@
       <c r="F7" s="29">
         <v>2</v>
       </c>
-      <c r="G7" s="47">
+      <c r="G7" s="44">
         <v>50028.370682409222</v>
       </c>
-      <c r="H7" s="47">
+      <c r="H7" s="44">
         <f t="shared" si="0"/>
         <v>100056.74136481844</v>
       </c>
@@ -2199,10 +2199,10 @@
       <c r="F8" s="29">
         <v>15</v>
       </c>
-      <c r="G8" s="47">
+      <c r="G8" s="44">
         <v>32874.684832431136</v>
       </c>
-      <c r="H8" s="47">
+      <c r="H8" s="44">
         <f t="shared" si="0"/>
         <v>493120.27248646703</v>
       </c>
@@ -2226,10 +2226,10 @@
       <c r="F9" s="29">
         <v>17</v>
       </c>
-      <c r="G9" s="47">
+      <c r="G9" s="44">
         <v>103200.66103202674</v>
       </c>
-      <c r="H9" s="47">
+      <c r="H9" s="44">
         <f t="shared" si="0"/>
         <v>1754411.2375444544</v>
       </c>
@@ -2253,10 +2253,10 @@
       <c r="F10" s="29">
         <v>1</v>
       </c>
-      <c r="G10" s="47">
+      <c r="G10" s="44">
         <v>86366.034368211112</v>
       </c>
-      <c r="H10" s="47">
+      <c r="H10" s="44">
         <f t="shared" si="0"/>
         <v>86366.034368211112</v>
       </c>
@@ -2280,10 +2280,10 @@
       <c r="F11" s="29">
         <v>2</v>
       </c>
-      <c r="G11" s="47">
+      <c r="G11" s="44">
         <v>333500.80488022871</v>
       </c>
-      <c r="H11" s="47">
+      <c r="H11" s="44">
         <f t="shared" si="0"/>
         <v>667001.60976045742</v>
       </c>
@@ -2307,10 +2307,10 @@
       <c r="F12" s="30">
         <v>2</v>
       </c>
-      <c r="G12" s="47">
+      <c r="G12" s="44">
         <v>122491.93705091486</v>
       </c>
-      <c r="H12" s="47">
+      <c r="H12" s="44">
         <f t="shared" si="0"/>
         <v>244983.87410182972</v>
       </c>
@@ -2334,10 +2334,10 @@
       <c r="F13" s="30">
         <v>2</v>
       </c>
-      <c r="G13" s="47">
+      <c r="G13" s="44">
         <v>26359.5214821884</v>
       </c>
-      <c r="H13" s="47">
+      <c r="H13" s="44">
         <f t="shared" si="0"/>
         <v>52719.0429643768</v>
       </c>
@@ -2361,10 +2361,10 @@
       <c r="F14" s="30">
         <v>2</v>
       </c>
-      <c r="G14" s="47">
+      <c r="G14" s="44">
         <v>203225.75051161199</v>
       </c>
-      <c r="H14" s="47">
+      <c r="H14" s="44">
         <f t="shared" si="0"/>
         <v>406451.50102322397</v>
       </c>
@@ -2388,10 +2388,10 @@
       <c r="F15" s="30">
         <v>1</v>
       </c>
-      <c r="G15" s="47">
+      <c r="G15" s="44">
         <v>218270.51704076401</v>
       </c>
-      <c r="H15" s="47">
+      <c r="H15" s="44">
         <f t="shared" si="0"/>
         <v>218270.51704076401</v>
       </c>
@@ -2415,10 +2415,10 @@
       <c r="F16" s="30">
         <v>2</v>
       </c>
-      <c r="G16" s="47">
+      <c r="G16" s="44">
         <v>36731.7567771498</v>
       </c>
-      <c r="H16" s="47">
+      <c r="H16" s="44">
         <f t="shared" si="0"/>
         <v>73463.513554299599</v>
       </c>
@@ -2442,10 +2442,10 @@
       <c r="F17" s="30">
         <v>2</v>
       </c>
-      <c r="G17" s="47">
+      <c r="G17" s="44">
         <v>61076.725160907547</v>
       </c>
-      <c r="H17" s="47">
+      <c r="H17" s="44">
         <f t="shared" si="0"/>
         <v>122153.45032181509</v>
       </c>
@@ -2469,10 +2469,10 @@
       <c r="F18" s="30">
         <v>2</v>
       </c>
-      <c r="G18" s="47">
+      <c r="G18" s="44">
         <v>69403.056634978464</v>
       </c>
-      <c r="H18" s="47">
+      <c r="H18" s="44">
         <f t="shared" si="0"/>
         <v>138806.11326995693</v>
       </c>
@@ -2496,10 +2496,10 @@
       <c r="F19" s="30">
         <v>2</v>
       </c>
-      <c r="G19" s="47">
+      <c r="G19" s="44">
         <v>178962.75233548417</v>
       </c>
-      <c r="H19" s="47">
+      <c r="H19" s="44">
         <f t="shared" si="0"/>
         <v>357925.50467096834</v>
       </c>
@@ -2523,10 +2523,10 @@
       <c r="F20" s="30">
         <v>2</v>
       </c>
-      <c r="G20" s="47">
+      <c r="G20" s="44">
         <v>25038.338746408401</v>
       </c>
-      <c r="H20" s="47">
+      <c r="H20" s="44">
         <f t="shared" si="0"/>
         <v>50076.677492816802</v>
       </c>
@@ -2550,10 +2550,10 @@
       <c r="F21" s="30">
         <v>2</v>
       </c>
-      <c r="G21" s="47">
+      <c r="G21" s="44">
         <v>21587.96145395207</v>
       </c>
-      <c r="H21" s="47">
+      <c r="H21" s="44">
         <f t="shared" si="0"/>
         <v>43175.92290790414</v>
       </c>
@@ -2577,10 +2577,10 @@
       <c r="F22" s="30">
         <v>2</v>
       </c>
-      <c r="G22" s="47">
+      <c r="G22" s="44">
         <v>52254.772438773478</v>
       </c>
-      <c r="H22" s="47">
+      <c r="H22" s="44">
         <f t="shared" si="0"/>
         <v>104509.54487754696</v>
       </c>
@@ -2604,10 +2604,10 @@
       <c r="F23" s="30">
         <v>220</v>
       </c>
-      <c r="G23" s="47">
+      <c r="G23" s="44">
         <v>3460.7145224912902</v>
       </c>
-      <c r="H23" s="47">
+      <c r="H23" s="44">
         <f t="shared" si="0"/>
         <v>761357.19494808384</v>
       </c>
@@ -2631,10 +2631,10 @@
       <c r="F24" s="30">
         <v>80</v>
       </c>
-      <c r="G24" s="47">
+      <c r="G24" s="44">
         <v>2733.8572433327299</v>
       </c>
-      <c r="H24" s="47">
+      <c r="H24" s="44">
         <f t="shared" si="0"/>
         <v>218708.57946661839</v>
       </c>
@@ -2658,10 +2658,10 @@
       <c r="F25" s="30">
         <v>5</v>
       </c>
-      <c r="G25" s="47">
+      <c r="G25" s="44">
         <v>7399.3136111303602</v>
       </c>
-      <c r="H25" s="47">
+      <c r="H25" s="44">
         <f t="shared" si="0"/>
         <v>36996.568055651798</v>
       </c>
@@ -2685,10 +2685,10 @@
       <c r="F26" s="30">
         <v>20</v>
       </c>
-      <c r="G26" s="47">
+      <c r="G26" s="44">
         <v>16900.676104577298</v>
       </c>
-      <c r="H26" s="47">
+      <c r="H26" s="44">
         <f t="shared" si="0"/>
         <v>338013.52209154598</v>
       </c>
@@ -2712,10 +2712,10 @@
       <c r="F27" s="30">
         <v>1</v>
       </c>
-      <c r="G27" s="47">
+      <c r="G27" s="44">
         <v>50334.444352851635</v>
       </c>
-      <c r="H27" s="47">
+      <c r="H27" s="44">
         <f t="shared" si="0"/>
         <v>50334.444352851635</v>
       </c>
@@ -2739,10 +2739,10 @@
       <c r="F28" s="30">
         <v>1</v>
       </c>
-      <c r="G28" s="47">
+      <c r="G28" s="44">
         <v>1188813.0291227051</v>
       </c>
-      <c r="H28" s="47">
+      <c r="H28" s="44">
         <f t="shared" si="0"/>
         <v>1188813.0291227051</v>
       </c>
@@ -2766,10 +2766,10 @@
       <c r="F29" s="30">
         <v>1</v>
       </c>
-      <c r="G29" s="47">
+      <c r="G29" s="44">
         <v>5546173.8581705187</v>
       </c>
-      <c r="H29" s="47">
+      <c r="H29" s="44">
         <f t="shared" si="0"/>
         <v>5546173.8581705187</v>
       </c>
@@ -2793,10 +2793,10 @@
       <c r="F30" s="30">
         <v>1</v>
       </c>
-      <c r="G30" s="47">
+      <c r="G30" s="44">
         <v>6940079.9999999991</v>
       </c>
-      <c r="H30" s="47">
+      <c r="H30" s="44">
         <f t="shared" si="0"/>
         <v>6940079.9999999991</v>
       </c>
@@ -2820,10 +2820,10 @@
       <c r="F31" s="30">
         <v>1</v>
       </c>
-      <c r="G31" s="47">
+      <c r="G31" s="44">
         <v>1575378.50635817</v>
       </c>
-      <c r="H31" s="47">
+      <c r="H31" s="44">
         <f t="shared" si="0"/>
         <v>1575378.50635817</v>
       </c>
@@ -2847,10 +2847,10 @@
       <c r="F32" s="30">
         <v>1</v>
       </c>
-      <c r="G32" s="47">
+      <c r="G32" s="44">
         <v>7230190.9822909599</v>
       </c>
-      <c r="H32" s="47">
+      <c r="H32" s="44">
         <f t="shared" si="0"/>
         <v>7230190.9822909599</v>
       </c>
@@ -2874,10 +2874,10 @@
       <c r="F33" s="30">
         <v>1</v>
       </c>
-      <c r="G33" s="47">
+      <c r="G33" s="44">
         <v>722373.79191296315</v>
       </c>
-      <c r="H33" s="47">
+      <c r="H33" s="44">
         <f t="shared" si="0"/>
         <v>722373.79191296315</v>
       </c>
@@ -2901,10 +2901,10 @@
       <c r="F34" s="30">
         <v>1</v>
       </c>
-      <c r="G34" s="47">
+      <c r="G34" s="44">
         <v>1910833.4738552659</v>
       </c>
-      <c r="H34" s="47">
+      <c r="H34" s="44">
         <f t="shared" si="0"/>
         <v>1910833.4738552659</v>
       </c>
@@ -2928,10 +2928,10 @@
       <c r="F35" s="30">
         <v>1</v>
       </c>
-      <c r="G35" s="47">
+      <c r="G35" s="44">
         <v>180398.66711455578</v>
       </c>
-      <c r="H35" s="47">
+      <c r="H35" s="44">
         <f t="shared" si="0"/>
         <v>180398.66711455578</v>
       </c>
@@ -2955,10 +2955,10 @@
       <c r="F36" s="30">
         <v>1</v>
       </c>
-      <c r="G36" s="47">
+      <c r="G36" s="44">
         <v>70223.050853351975</v>
       </c>
-      <c r="H36" s="47">
+      <c r="H36" s="44">
         <f t="shared" si="0"/>
         <v>70223.050853351975</v>
       </c>
@@ -2982,10 +2982,10 @@
       <c r="F37" s="30">
         <v>2</v>
       </c>
-      <c r="G37" s="47">
+      <c r="G37" s="44">
         <v>24540.566351670568</v>
       </c>
-      <c r="H37" s="47">
+      <c r="H37" s="44">
         <f t="shared" si="0"/>
         <v>49081.132703341136</v>
       </c>
@@ -3009,10 +3009,10 @@
       <c r="F38" s="30">
         <v>1</v>
       </c>
-      <c r="G38" s="47">
+      <c r="G38" s="44">
         <v>1885704.9396997341</v>
       </c>
-      <c r="H38" s="47">
+      <c r="H38" s="44">
         <f t="shared" si="0"/>
         <v>1885704.9396997341</v>
       </c>
@@ -3036,10 +3036,10 @@
       <c r="F39" s="30">
         <v>1</v>
       </c>
-      <c r="G39" s="47">
+      <c r="G39" s="44">
         <v>1213229</v>
       </c>
-      <c r="H39" s="47">
+      <c r="H39" s="44">
         <f t="shared" si="0"/>
         <v>1213229</v>
       </c>
@@ -3063,10 +3063,10 @@
       <c r="F40" s="30">
         <v>1</v>
       </c>
-      <c r="G40" s="47">
+      <c r="G40" s="44">
         <v>221539.91143733199</v>
       </c>
-      <c r="H40" s="47">
+      <c r="H40" s="44">
         <f t="shared" si="0"/>
         <v>221539.91143733199</v>
       </c>
@@ -3090,10 +3090,10 @@
       <c r="F41" s="30">
         <v>1</v>
       </c>
-      <c r="G41" s="47">
+      <c r="G41" s="44">
         <v>221424.83406474354</v>
       </c>
-      <c r="H41" s="47">
+      <c r="H41" s="44">
         <f t="shared" si="0"/>
         <v>221424.83406474354</v>
       </c>
@@ -3117,10 +3117,10 @@
       <c r="F42" s="30">
         <v>2</v>
       </c>
-      <c r="G42" s="47">
+      <c r="G42" s="44">
         <v>40908.230084979288</v>
       </c>
-      <c r="H42" s="47">
+      <c r="H42" s="44">
         <f t="shared" si="0"/>
         <v>81816.460169958576</v>
       </c>
@@ -3144,10 +3144,10 @@
       <c r="F43" s="30">
         <v>4</v>
       </c>
-      <c r="G43" s="47">
+      <c r="G43" s="44">
         <v>29059.546453160121</v>
       </c>
-      <c r="H43" s="47">
+      <c r="H43" s="44">
         <f t="shared" si="0"/>
         <v>116238.18581264048</v>
       </c>
@@ -3171,10 +3171,10 @@
       <c r="F44" s="30">
         <v>4</v>
       </c>
-      <c r="G44" s="47">
+      <c r="G44" s="44">
         <v>12328.405016747052</v>
       </c>
-      <c r="H44" s="47">
+      <c r="H44" s="44">
         <f t="shared" si="0"/>
         <v>49313.620066988209</v>
       </c>
@@ -3198,10 +3198,10 @@
       <c r="F45" s="30">
         <v>2</v>
       </c>
-      <c r="G45" s="47">
+      <c r="G45" s="44">
         <v>26722.969235774675</v>
       </c>
-      <c r="H45" s="47">
+      <c r="H45" s="44">
         <f t="shared" si="0"/>
         <v>53445.938471549351</v>
       </c>
@@ -3225,10 +3225,10 @@
       <c r="F46" s="30">
         <v>2</v>
       </c>
-      <c r="G46" s="47">
+      <c r="G46" s="44">
         <v>13033.545693101019</v>
       </c>
-      <c r="H46" s="47">
+      <c r="H46" s="44">
         <f t="shared" si="0"/>
         <v>26067.091386202039</v>
       </c>
@@ -3252,10 +3252,10 @@
       <c r="F47" s="30">
         <v>2</v>
       </c>
-      <c r="G47" s="47">
+      <c r="G47" s="44">
         <v>32606.443411354743</v>
       </c>
-      <c r="H47" s="47">
+      <c r="H47" s="44">
         <f t="shared" si="0"/>
         <v>65212.886822709486</v>
       </c>
@@ -3279,10 +3279,10 @@
       <c r="F48" s="30">
         <v>2</v>
       </c>
-      <c r="G48" s="47">
+      <c r="G48" s="44">
         <v>26568.217390760321</v>
       </c>
-      <c r="H48" s="47">
+      <c r="H48" s="44">
         <f t="shared" si="0"/>
         <v>53136.434781520642</v>
       </c>
@@ -3306,10 +3306,10 @@
       <c r="F49" s="30">
         <v>1</v>
       </c>
-      <c r="G49" s="47">
+      <c r="G49" s="44">
         <v>66922.441184385578</v>
       </c>
-      <c r="H49" s="47">
+      <c r="H49" s="44">
         <f t="shared" si="0"/>
         <v>66922.441184385578</v>
       </c>
@@ -3333,10 +3333,10 @@
       <c r="F50" s="30">
         <v>6</v>
       </c>
-      <c r="G50" s="47">
+      <c r="G50" s="44">
         <v>98231.823976914427</v>
       </c>
-      <c r="H50" s="47">
+      <c r="H50" s="44">
         <f t="shared" si="0"/>
         <v>589390.94386148662</v>
       </c>
@@ -3360,10 +3360,10 @@
       <c r="F51" s="30">
         <v>4</v>
       </c>
-      <c r="G51" s="47">
+      <c r="G51" s="44">
         <v>15586.0247669696</v>
       </c>
-      <c r="H51" s="47">
+      <c r="H51" s="44">
         <f t="shared" si="0"/>
         <v>62344.0990678784</v>
       </c>
@@ -3387,10 +3387,10 @@
       <c r="F52" s="30">
         <v>4</v>
       </c>
-      <c r="G52" s="47">
+      <c r="G52" s="44">
         <v>15052.283690975739</v>
       </c>
-      <c r="H52" s="47">
+      <c r="H52" s="44">
         <f t="shared" si="0"/>
         <v>60209.134763902955</v>
       </c>
@@ -3414,10 +3414,10 @@
       <c r="F53" s="30">
         <v>2</v>
       </c>
-      <c r="G53" s="47">
+      <c r="G53" s="44">
         <v>8769.1211320663151</v>
       </c>
-      <c r="H53" s="47">
+      <c r="H53" s="44">
         <f t="shared" si="0"/>
         <v>17538.24226413263</v>
       </c>
@@ -3441,10 +3441,10 @@
       <c r="F54" s="30">
         <v>2</v>
       </c>
-      <c r="G54" s="47">
+      <c r="G54" s="44">
         <v>12156</v>
       </c>
-      <c r="H54" s="47">
+      <c r="H54" s="44">
         <f t="shared" si="0"/>
         <v>24312</v>
       </c>
@@ -3468,10 +3468,10 @@
       <c r="F55" s="30">
         <v>2</v>
       </c>
-      <c r="G55" s="47">
+      <c r="G55" s="44">
         <v>40337.213729605384</v>
       </c>
-      <c r="H55" s="47">
+      <c r="H55" s="44">
         <f t="shared" si="0"/>
         <v>80674.427459210769</v>
       </c>
@@ -3495,10 +3495,10 @@
       <c r="F56" s="30">
         <v>2</v>
       </c>
-      <c r="G56" s="47">
+      <c r="G56" s="44">
         <v>64139.399145630654</v>
       </c>
-      <c r="H56" s="47">
+      <c r="H56" s="44">
         <f t="shared" si="0"/>
         <v>128278.79829126131</v>
       </c>
@@ -3522,10 +3522,10 @@
       <c r="F57" s="30">
         <v>2</v>
       </c>
-      <c r="G57" s="47">
+      <c r="G57" s="44">
         <v>18484.946079767724</v>
       </c>
-      <c r="H57" s="47">
+      <c r="H57" s="44">
         <f t="shared" si="0"/>
         <v>36969.892159535448</v>
       </c>
@@ -3549,10 +3549,10 @@
       <c r="F58" s="30">
         <v>2</v>
       </c>
-      <c r="G58" s="47">
+      <c r="G58" s="44">
         <v>83869.032588106347</v>
       </c>
-      <c r="H58" s="47">
+      <c r="H58" s="44">
         <f t="shared" si="0"/>
         <v>167738.06517621269</v>
       </c>
@@ -3576,10 +3576,10 @@
       <c r="F59" s="30">
         <v>2</v>
       </c>
-      <c r="G59" s="47">
+      <c r="G59" s="44">
         <v>25930.359081402308</v>
       </c>
-      <c r="H59" s="47">
+      <c r="H59" s="44">
         <f t="shared" si="0"/>
         <v>51860.718162804616</v>
       </c>
@@ -3603,10 +3603,10 @@
       <c r="F60" s="30">
         <v>2</v>
       </c>
-      <c r="G60" s="47">
+      <c r="G60" s="44">
         <v>49783.510168031098</v>
       </c>
-      <c r="H60" s="47">
+      <c r="H60" s="44">
         <f t="shared" si="0"/>
         <v>99567.020336062196</v>
       </c>
@@ -3630,10 +3630,10 @@
       <c r="F61" s="30">
         <v>2</v>
       </c>
-      <c r="G61" s="47">
+      <c r="G61" s="44">
         <v>44815.088348658523</v>
       </c>
-      <c r="H61" s="47">
+      <c r="H61" s="44">
         <f t="shared" si="0"/>
         <v>89630.176697317045</v>
       </c>
@@ -3657,10 +3657,10 @@
       <c r="F62" s="30">
         <v>2</v>
       </c>
-      <c r="G62" s="47">
+      <c r="G62" s="44">
         <v>40139.414436457795</v>
       </c>
-      <c r="H62" s="47">
+      <c r="H62" s="44">
         <f t="shared" si="0"/>
         <v>80278.82887291559</v>
       </c>
@@ -3684,10 +3684,10 @@
       <c r="F63" s="30">
         <v>2</v>
       </c>
-      <c r="G63" s="47">
+      <c r="G63" s="44">
         <v>81263.611642448115</v>
       </c>
-      <c r="H63" s="47">
+      <c r="H63" s="44">
         <f t="shared" si="0"/>
         <v>162527.22328489623</v>
       </c>
@@ -3711,10 +3711,10 @@
       <c r="F64" s="30">
         <v>2</v>
       </c>
-      <c r="G64" s="47">
+      <c r="G64" s="44">
         <v>3239.7294251325138</v>
       </c>
-      <c r="H64" s="47">
+      <c r="H64" s="44">
         <f t="shared" si="0"/>
         <v>6479.4588502650276</v>
       </c>
@@ -3738,10 +3738,10 @@
       <c r="F65" s="30">
         <v>2</v>
       </c>
-      <c r="G65" s="47">
+      <c r="G65" s="44">
         <v>11737.738621116083</v>
       </c>
-      <c r="H65" s="47">
+      <c r="H65" s="44">
         <f t="shared" si="0"/>
         <v>23475.477242232166</v>
       </c>
@@ -3765,10 +3765,10 @@
       <c r="F66" s="30">
         <v>2</v>
       </c>
-      <c r="G66" s="47">
+      <c r="G66" s="44">
         <v>11425.30239310147</v>
       </c>
-      <c r="H66" s="47">
+      <c r="H66" s="44">
         <f t="shared" si="0"/>
         <v>22850.604786202941</v>
       </c>
@@ -3792,10 +3792,10 @@
       <c r="F67" s="30">
         <v>2</v>
       </c>
-      <c r="G67" s="47">
+      <c r="G67" s="44">
         <v>25360.668996316312</v>
       </c>
-      <c r="H67" s="47">
+      <c r="H67" s="44">
         <f t="shared" si="0"/>
         <v>50721.337992632623</v>
       </c>
@@ -3819,10 +3819,10 @@
       <c r="F68" s="30">
         <v>2</v>
       </c>
-      <c r="G68" s="47">
+      <c r="G68" s="44">
         <v>10471.945981938639</v>
       </c>
-      <c r="H68" s="47">
+      <c r="H68" s="44">
         <f t="shared" ref="H68:H131" si="1">+F68*G68</f>
         <v>20943.891963877279</v>
       </c>
@@ -3846,10 +3846,10 @@
       <c r="F69" s="30">
         <v>1</v>
       </c>
-      <c r="G69" s="47">
+      <c r="G69" s="44">
         <v>16601</v>
       </c>
-      <c r="H69" s="47">
+      <c r="H69" s="44">
         <f t="shared" si="1"/>
         <v>16601</v>
       </c>
@@ -3873,10 +3873,10 @@
       <c r="F70" s="30">
         <v>5</v>
       </c>
-      <c r="G70" s="47">
+      <c r="G70" s="44">
         <v>102551.62243509365</v>
       </c>
-      <c r="H70" s="47">
+      <c r="H70" s="44">
         <f t="shared" si="1"/>
         <v>512758.11217546824</v>
       </c>
@@ -3900,10 +3900,10 @@
       <c r="F71" s="30">
         <v>300</v>
       </c>
-      <c r="G71" s="47">
+      <c r="G71" s="44">
         <v>15036.663151500834</v>
       </c>
-      <c r="H71" s="47">
+      <c r="H71" s="44">
         <f t="shared" si="1"/>
         <v>4510998.9454502501</v>
       </c>
@@ -3927,10 +3927,10 @@
       <c r="F72" s="31">
         <v>1</v>
       </c>
-      <c r="G72" s="47">
+      <c r="G72" s="44">
         <v>502101.62944406236</v>
       </c>
-      <c r="H72" s="47">
+      <c r="H72" s="44">
         <f t="shared" si="1"/>
         <v>502101.62944406236</v>
       </c>
@@ -3954,10 +3954,10 @@
       <c r="F73" s="31">
         <v>1</v>
       </c>
-      <c r="G73" s="47">
+      <c r="G73" s="44">
         <v>583333.63358138222</v>
       </c>
-      <c r="H73" s="47">
+      <c r="H73" s="44">
         <f t="shared" si="1"/>
         <v>583333.63358138222</v>
       </c>
@@ -3981,10 +3981,10 @@
       <c r="F74" s="31">
         <v>1</v>
       </c>
-      <c r="G74" s="47">
+      <c r="G74" s="44">
         <v>356773.27109789656</v>
       </c>
-      <c r="H74" s="47">
+      <c r="H74" s="44">
         <f t="shared" si="1"/>
         <v>356773.27109789656</v>
       </c>
@@ -4008,10 +4008,10 @@
       <c r="F75" s="31">
         <v>1</v>
       </c>
-      <c r="G75" s="47">
+      <c r="G75" s="44">
         <v>153688.1790190601</v>
       </c>
-      <c r="H75" s="47">
+      <c r="H75" s="44">
         <f t="shared" si="1"/>
         <v>153688.1790190601</v>
       </c>
@@ -4035,10 +4035,10 @@
       <c r="F76" s="32">
         <v>6</v>
       </c>
-      <c r="G76" s="47">
+      <c r="G76" s="44">
         <v>370372.89123680117</v>
       </c>
-      <c r="H76" s="47">
+      <c r="H76" s="44">
         <f t="shared" si="1"/>
         <v>2222237.347420807</v>
       </c>
@@ -4062,10 +4062,10 @@
       <c r="F77" s="32">
         <v>1</v>
       </c>
-      <c r="G77" s="47">
+      <c r="G77" s="44">
         <v>195481.79462471174</v>
       </c>
-      <c r="H77" s="47">
+      <c r="H77" s="44">
         <f t="shared" si="1"/>
         <v>195481.79462471174</v>
       </c>
@@ -4089,10 +4089,10 @@
       <c r="F78" s="32">
         <v>1</v>
       </c>
-      <c r="G78" s="47">
+      <c r="G78" s="44">
         <v>158313.0949434592</v>
       </c>
-      <c r="H78" s="47">
+      <c r="H78" s="44">
         <f t="shared" si="1"/>
         <v>158313.0949434592</v>
       </c>
@@ -4116,10 +4116,10 @@
       <c r="F79" s="32">
         <v>1</v>
       </c>
-      <c r="G79" s="47">
+      <c r="G79" s="44">
         <v>1162964.8113843552</v>
       </c>
-      <c r="H79" s="47">
+      <c r="H79" s="44">
         <f t="shared" si="1"/>
         <v>1162964.8113843552</v>
       </c>
@@ -4143,10 +4143,10 @@
       <c r="F80" s="32">
         <v>20</v>
       </c>
-      <c r="G80" s="47">
+      <c r="G80" s="44">
         <v>129772.80855626345</v>
       </c>
-      <c r="H80" s="47">
+      <c r="H80" s="44">
         <f t="shared" si="1"/>
         <v>2595456.171125269</v>
       </c>
@@ -4170,10 +4170,10 @@
       <c r="F81" s="32">
         <v>1</v>
       </c>
-      <c r="G81" s="47">
+      <c r="G81" s="44">
         <v>2840222.1312170723</v>
       </c>
-      <c r="H81" s="47">
+      <c r="H81" s="44">
         <f t="shared" si="1"/>
         <v>2840222.1312170723</v>
       </c>
@@ -4197,10 +4197,10 @@
       <c r="F82" s="33">
         <v>10</v>
       </c>
-      <c r="G82" s="47">
+      <c r="G82" s="44">
         <v>73778.382483261506</v>
       </c>
-      <c r="H82" s="47">
+      <c r="H82" s="44">
         <f t="shared" si="1"/>
         <v>737783.82483261509</v>
       </c>
@@ -4224,10 +4224,10 @@
       <c r="F83" s="33">
         <v>280</v>
       </c>
-      <c r="G83" s="47">
+      <c r="G83" s="44">
         <v>69501.869672172295</v>
       </c>
-      <c r="H83" s="47">
+      <c r="H83" s="44">
         <f t="shared" si="1"/>
         <v>19460523.508208241</v>
       </c>
@@ -4251,10 +4251,10 @@
       <c r="F84" s="33">
         <v>2</v>
       </c>
-      <c r="G84" s="47">
+      <c r="G84" s="44">
         <v>27813.600780352299</v>
       </c>
-      <c r="H84" s="47">
+      <c r="H84" s="44">
         <f t="shared" si="1"/>
         <v>55627.201560704598</v>
       </c>
@@ -4278,10 +4278,10 @@
       <c r="F85" s="33">
         <v>1</v>
       </c>
-      <c r="G85" s="47">
+      <c r="G85" s="44">
         <v>30527.1326151539</v>
       </c>
-      <c r="H85" s="47">
+      <c r="H85" s="44">
         <f t="shared" si="1"/>
         <v>30527.1326151539</v>
       </c>
@@ -4305,10 +4305,10 @@
       <c r="F86" s="33">
         <v>10</v>
       </c>
-      <c r="G86" s="47">
+      <c r="G86" s="44">
         <v>45946</v>
       </c>
-      <c r="H86" s="47">
+      <c r="H86" s="44">
         <f t="shared" si="1"/>
         <v>459460</v>
       </c>
@@ -4332,10 +4332,10 @@
       <c r="F87" s="33">
         <v>10</v>
       </c>
-      <c r="G87" s="47">
+      <c r="G87" s="44">
         <v>21741</v>
       </c>
-      <c r="H87" s="47">
+      <c r="H87" s="44">
         <f t="shared" si="1"/>
         <v>217410</v>
       </c>
@@ -4359,8 +4359,8 @@
       <c r="F88" s="33">
         <v>0</v>
       </c>
-      <c r="G88" s="47"/>
-      <c r="H88" s="47">
+      <c r="G88" s="44"/>
+      <c r="H88" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4384,10 +4384,10 @@
       <c r="F89" s="33">
         <v>10</v>
       </c>
-      <c r="G89" s="47">
+      <c r="G89" s="44">
         <v>13388</v>
       </c>
-      <c r="H89" s="47">
+      <c r="H89" s="44">
         <f t="shared" si="1"/>
         <v>133880</v>
       </c>
@@ -4411,10 +4411,10 @@
       <c r="F90" s="33">
         <v>10</v>
       </c>
-      <c r="G90" s="47">
+      <c r="G90" s="44">
         <v>14819.782689023979</v>
       </c>
-      <c r="H90" s="47">
+      <c r="H90" s="44">
         <f t="shared" si="1"/>
         <v>148197.82689023978</v>
       </c>
@@ -4438,10 +4438,10 @@
       <c r="F91" s="33">
         <v>560</v>
       </c>
-      <c r="G91" s="47">
+      <c r="G91" s="44">
         <v>19814</v>
       </c>
-      <c r="H91" s="47">
+      <c r="H91" s="44">
         <f t="shared" si="1"/>
         <v>11095840</v>
       </c>
@@ -4465,10 +4465,10 @@
       <c r="F92" s="33">
         <v>40</v>
       </c>
-      <c r="G92" s="47">
+      <c r="G92" s="44">
         <v>18928.825007129733</v>
       </c>
-      <c r="H92" s="47">
+      <c r="H92" s="44">
         <f t="shared" si="1"/>
         <v>757153.00028518937</v>
       </c>
@@ -4492,10 +4492,10 @@
       <c r="F93" s="34">
         <v>80</v>
       </c>
-      <c r="G93" s="47">
+      <c r="G93" s="44">
         <v>10439.3622784456</v>
       </c>
-      <c r="H93" s="47">
+      <c r="H93" s="44">
         <f t="shared" si="1"/>
         <v>835148.98227564804</v>
       </c>
@@ -4519,8 +4519,8 @@
       <c r="F94" s="34">
         <v>280</v>
       </c>
-      <c r="G94" s="47"/>
-      <c r="H94" s="47">
+      <c r="G94" s="44"/>
+      <c r="H94" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4544,8 +4544,8 @@
       <c r="F95" s="34">
         <v>1</v>
       </c>
-      <c r="G95" s="47"/>
-      <c r="H95" s="47">
+      <c r="G95" s="44"/>
+      <c r="H95" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4569,10 +4569,10 @@
       <c r="F96" s="34">
         <v>10</v>
       </c>
-      <c r="G96" s="47">
+      <c r="G96" s="44">
         <v>808408.35180689697</v>
       </c>
-      <c r="H96" s="47">
+      <c r="H96" s="44">
         <f t="shared" si="1"/>
         <v>8084083.5180689692</v>
       </c>
@@ -4596,10 +4596,10 @@
       <c r="F97" s="34">
         <v>17</v>
       </c>
-      <c r="G97" s="47">
+      <c r="G97" s="44">
         <v>260382.92457362884</v>
       </c>
-      <c r="H97" s="47">
+      <c r="H97" s="44">
         <f t="shared" si="1"/>
         <v>4426509.7177516902</v>
       </c>
@@ -4623,10 +4623,10 @@
       <c r="F98" s="34">
         <v>17</v>
       </c>
-      <c r="G98" s="47">
+      <c r="G98" s="44">
         <v>221231.98806008647</v>
       </c>
-      <c r="H98" s="47">
+      <c r="H98" s="44">
         <f t="shared" si="1"/>
         <v>3760943.79702147</v>
       </c>
@@ -4650,8 +4650,8 @@
       <c r="F99" s="34">
         <v>17</v>
       </c>
-      <c r="G99" s="47"/>
-      <c r="H99" s="47">
+      <c r="G99" s="44"/>
+      <c r="H99" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4675,10 +4675,10 @@
       <c r="F100" s="34">
         <v>20</v>
       </c>
-      <c r="G100" s="47">
+      <c r="G100" s="44">
         <v>576027.46928634902</v>
       </c>
-      <c r="H100" s="47">
+      <c r="H100" s="44">
         <f t="shared" si="1"/>
         <v>11520549.385726981</v>
       </c>
@@ -4702,10 +4702,10 @@
       <c r="F101" s="34">
         <v>17</v>
       </c>
-      <c r="G101" s="47">
+      <c r="G101" s="44">
         <v>126606.41358224573</v>
       </c>
-      <c r="H101" s="47">
+      <c r="H101" s="44">
         <f t="shared" si="1"/>
         <v>2152309.0308981775</v>
       </c>
@@ -4729,10 +4729,10 @@
       <c r="F102" s="34">
         <v>10</v>
       </c>
-      <c r="G102" s="47">
+      <c r="G102" s="44">
         <v>390358.10276026669</v>
       </c>
-      <c r="H102" s="47">
+      <c r="H102" s="44">
         <f t="shared" si="1"/>
         <v>3903581.027602667</v>
       </c>
@@ -4756,10 +4756,10 @@
       <c r="F103" s="34">
         <v>4</v>
       </c>
-      <c r="G103" s="47">
+      <c r="G103" s="44">
         <v>27807.419580210895</v>
       </c>
-      <c r="H103" s="47">
+      <c r="H103" s="44">
         <f t="shared" si="1"/>
         <v>111229.67832084358</v>
       </c>
@@ -4783,10 +4783,10 @@
       <c r="F104" s="34">
         <v>3</v>
       </c>
-      <c r="G104" s="47">
+      <c r="G104" s="44">
         <v>274587.67679811554</v>
       </c>
-      <c r="H104" s="47">
+      <c r="H104" s="44">
         <f t="shared" si="1"/>
         <v>823763.03039434669</v>
       </c>
@@ -4810,10 +4810,10 @@
       <c r="F105" s="34">
         <v>3</v>
       </c>
-      <c r="G105" s="47">
+      <c r="G105" s="44">
         <v>156217.27743216965</v>
       </c>
-      <c r="H105" s="47">
+      <c r="H105" s="44">
         <f t="shared" si="1"/>
         <v>468651.83229650895</v>
       </c>
@@ -4837,10 +4837,10 @@
       <c r="F106" s="34">
         <v>3</v>
       </c>
-      <c r="G106" s="47">
+      <c r="G106" s="44">
         <v>827826.52674783766</v>
       </c>
-      <c r="H106" s="47">
+      <c r="H106" s="44">
         <f t="shared" si="1"/>
         <v>2483479.580243513</v>
       </c>
@@ -4864,10 +4864,10 @@
       <c r="F107" s="34">
         <v>5</v>
       </c>
-      <c r="G107" s="47">
+      <c r="G107" s="44">
         <v>39655.445313381118</v>
       </c>
-      <c r="H107" s="47">
+      <c r="H107" s="44">
         <f t="shared" si="1"/>
         <v>198277.22656690559</v>
       </c>
@@ -4891,10 +4891,10 @@
       <c r="F108" s="34">
         <v>72</v>
       </c>
-      <c r="G108" s="47">
+      <c r="G108" s="44">
         <v>30239.422779845183</v>
       </c>
-      <c r="H108" s="47">
+      <c r="H108" s="44">
         <f t="shared" si="1"/>
         <v>2177238.4401488532</v>
       </c>
@@ -4918,10 +4918,10 @@
       <c r="F109" s="34">
         <v>10</v>
       </c>
-      <c r="G109" s="47">
+      <c r="G109" s="44">
         <v>116552.48555519934</v>
       </c>
-      <c r="H109" s="47">
+      <c r="H109" s="44">
         <f t="shared" si="1"/>
         <v>1165524.8555519935</v>
       </c>
@@ -4945,10 +4945,10 @@
       <c r="F110" s="34">
         <v>300</v>
       </c>
-      <c r="G110" s="47">
+      <c r="G110" s="44">
         <v>8833.4821379061141</v>
       </c>
-      <c r="H110" s="47">
+      <c r="H110" s="44">
         <f t="shared" si="1"/>
         <v>2650044.6413718341</v>
       </c>
@@ -4972,10 +4972,10 @@
       <c r="F111" s="34">
         <v>1</v>
       </c>
-      <c r="G111" s="47">
+      <c r="G111" s="44">
         <v>337264.25442430028</v>
       </c>
-      <c r="H111" s="47">
+      <c r="H111" s="44">
         <f t="shared" si="1"/>
         <v>337264.25442430028</v>
       </c>
@@ -4999,10 +4999,10 @@
       <c r="F112" s="34">
         <v>1</v>
       </c>
-      <c r="G112" s="47">
+      <c r="G112" s="44">
         <v>101745</v>
       </c>
-      <c r="H112" s="47">
+      <c r="H112" s="44">
         <f t="shared" si="1"/>
         <v>101745</v>
       </c>
@@ -5026,10 +5026,10 @@
       <c r="F113" s="34">
         <v>1</v>
       </c>
-      <c r="G113" s="47">
+      <c r="G113" s="44">
         <v>28460.329378571601</v>
       </c>
-      <c r="H113" s="47">
+      <c r="H113" s="44">
         <f t="shared" si="1"/>
         <v>28460.329378571601</v>
       </c>
@@ -5053,10 +5053,10 @@
       <c r="F114" s="34">
         <v>3</v>
       </c>
-      <c r="G114" s="47">
+      <c r="G114" s="44">
         <v>11623.694991038275</v>
       </c>
-      <c r="H114" s="47">
+      <c r="H114" s="44">
         <f t="shared" si="1"/>
         <v>34871.084973114826</v>
       </c>
@@ -5080,10 +5080,10 @@
       <c r="F115" s="34">
         <v>3</v>
       </c>
-      <c r="G115" s="47">
+      <c r="G115" s="44">
         <v>19239.157286242935</v>
       </c>
-      <c r="H115" s="47">
+      <c r="H115" s="44">
         <f t="shared" si="1"/>
         <v>57717.471858728808</v>
       </c>
@@ -5107,10 +5107,10 @@
       <c r="F116" s="34">
         <v>3</v>
       </c>
-      <c r="G116" s="47">
+      <c r="G116" s="44">
         <v>285630.29218071362</v>
       </c>
-      <c r="H116" s="47">
+      <c r="H116" s="44">
         <f t="shared" si="1"/>
         <v>856890.87654214085</v>
       </c>
@@ -5134,10 +5134,10 @@
       <c r="F117" s="34">
         <v>1</v>
       </c>
-      <c r="G117" s="47">
+      <c r="G117" s="44">
         <v>475682.13436515949</v>
       </c>
-      <c r="H117" s="47">
+      <c r="H117" s="44">
         <f t="shared" si="1"/>
         <v>475682.13436515949</v>
       </c>
@@ -5161,10 +5161,10 @@
       <c r="F118" s="34">
         <v>3</v>
       </c>
-      <c r="G118" s="47">
+      <c r="G118" s="44">
         <v>586327.71035909501</v>
       </c>
-      <c r="H118" s="47">
+      <c r="H118" s="44">
         <f t="shared" si="1"/>
         <v>1758983.1310772849</v>
       </c>
@@ -5188,10 +5188,10 @@
       <c r="F119" s="34">
         <v>1</v>
       </c>
-      <c r="G119" s="47">
+      <c r="G119" s="44">
         <v>190876.52387367756</v>
       </c>
-      <c r="H119" s="47">
+      <c r="H119" s="44">
         <f t="shared" si="1"/>
         <v>190876.52387367756</v>
       </c>
@@ -5215,10 +5215,10 @@
       <c r="F120" s="34">
         <v>2</v>
       </c>
-      <c r="G120" s="47">
+      <c r="G120" s="44">
         <v>71831.387510017623</v>
       </c>
-      <c r="H120" s="47">
+      <c r="H120" s="44">
         <f t="shared" si="1"/>
         <v>143662.77502003525</v>
       </c>
@@ -5242,10 +5242,10 @@
       <c r="F121" s="34">
         <v>180</v>
       </c>
-      <c r="G121" s="47">
+      <c r="G121" s="44">
         <v>19602.713778330035</v>
       </c>
-      <c r="H121" s="47">
+      <c r="H121" s="44">
         <f t="shared" si="1"/>
         <v>3528488.4800994061</v>
       </c>
@@ -5269,10 +5269,10 @@
       <c r="F122" s="35">
         <v>1</v>
       </c>
-      <c r="G122" s="47">
+      <c r="G122" s="44">
         <v>53629.173161061248</v>
       </c>
-      <c r="H122" s="47">
+      <c r="H122" s="44">
         <f t="shared" si="1"/>
         <v>53629.173161061248</v>
       </c>
@@ -5296,10 +5296,10 @@
       <c r="F123" s="35">
         <v>1</v>
       </c>
-      <c r="G123" s="47">
+      <c r="G123" s="44">
         <v>172003</v>
       </c>
-      <c r="H123" s="47">
+      <c r="H123" s="44">
         <f t="shared" si="1"/>
         <v>172003</v>
       </c>
@@ -5323,10 +5323,10 @@
       <c r="F124" s="35">
         <v>1</v>
       </c>
-      <c r="G124" s="47">
+      <c r="G124" s="44">
         <v>106029</v>
       </c>
-      <c r="H124" s="47">
+      <c r="H124" s="44">
         <f t="shared" si="1"/>
         <v>106029</v>
       </c>
@@ -5350,10 +5350,10 @@
       <c r="F125" s="35">
         <v>1</v>
       </c>
-      <c r="G125" s="47">
+      <c r="G125" s="44">
         <v>124949</v>
       </c>
-      <c r="H125" s="47">
+      <c r="H125" s="44">
         <f t="shared" si="1"/>
         <v>124949</v>
       </c>
@@ -5377,10 +5377,10 @@
       <c r="F126" s="35">
         <v>1</v>
       </c>
-      <c r="G126" s="47">
+      <c r="G126" s="44">
         <v>201027</v>
       </c>
-      <c r="H126" s="47">
+      <c r="H126" s="44">
         <f t="shared" si="1"/>
         <v>201027</v>
       </c>
@@ -5404,10 +5404,10 @@
       <c r="F127" s="35">
         <v>17</v>
       </c>
-      <c r="G127" s="47">
+      <c r="G127" s="44">
         <v>111384</v>
       </c>
-      <c r="H127" s="47">
+      <c r="H127" s="44">
         <f t="shared" si="1"/>
         <v>1893528</v>
       </c>
@@ -5431,10 +5431,10 @@
       <c r="F128" s="35">
         <v>1</v>
       </c>
-      <c r="G128" s="47">
+      <c r="G128" s="44">
         <v>31541</v>
       </c>
-      <c r="H128" s="47">
+      <c r="H128" s="44">
         <f t="shared" si="1"/>
         <v>31541</v>
       </c>
@@ -5458,10 +5458,10 @@
       <c r="F129" s="35">
         <v>3</v>
       </c>
-      <c r="G129" s="47">
+      <c r="G129" s="44">
         <v>12852</v>
       </c>
-      <c r="H129" s="47">
+      <c r="H129" s="44">
         <f t="shared" si="1"/>
         <v>38556</v>
       </c>
@@ -5485,10 +5485,10 @@
       <c r="F130" s="35">
         <v>2</v>
       </c>
-      <c r="G130" s="47">
+      <c r="G130" s="44">
         <v>161097</v>
       </c>
-      <c r="H130" s="47">
+      <c r="H130" s="44">
         <f t="shared" si="1"/>
         <v>322194</v>
       </c>
@@ -5512,10 +5512,10 @@
       <c r="F131" s="35">
         <v>2</v>
       </c>
-      <c r="G131" s="47">
+      <c r="G131" s="44">
         <v>203444.99803931531</v>
       </c>
-      <c r="H131" s="47">
+      <c r="H131" s="44">
         <f t="shared" si="1"/>
         <v>406889.99607863062</v>
       </c>
@@ -5539,10 +5539,10 @@
       <c r="F132" s="36">
         <v>16</v>
       </c>
-      <c r="G132" s="47">
+      <c r="G132" s="44">
         <v>19056.831765565905</v>
       </c>
-      <c r="H132" s="47">
+      <c r="H132" s="44">
         <f t="shared" ref="H132:H195" si="2">+F132*G132</f>
         <v>304909.30824905448</v>
       </c>
@@ -5566,10 +5566,10 @@
       <c r="F133" s="36">
         <v>16</v>
       </c>
-      <c r="G133" s="47">
+      <c r="G133" s="44">
         <v>18794.887444493306</v>
       </c>
-      <c r="H133" s="47">
+      <c r="H133" s="44">
         <f t="shared" si="2"/>
         <v>300718.1991118929</v>
       </c>
@@ -5593,10 +5593,10 @@
       <c r="F134" s="36">
         <v>32</v>
       </c>
-      <c r="G134" s="47">
+      <c r="G134" s="44">
         <v>34265.191182526491</v>
       </c>
-      <c r="H134" s="47">
+      <c r="H134" s="44">
         <f t="shared" si="2"/>
         <v>1096486.1178408477</v>
       </c>
@@ -5620,10 +5620,10 @@
       <c r="F135" s="36">
         <v>17</v>
       </c>
-      <c r="G135" s="47">
+      <c r="G135" s="44">
         <v>73161.349335922248</v>
       </c>
-      <c r="H135" s="47">
+      <c r="H135" s="44">
         <f t="shared" si="2"/>
         <v>1243742.9387106781</v>
       </c>
@@ -5647,10 +5647,10 @@
       <c r="F136" s="36">
         <v>1</v>
       </c>
-      <c r="G136" s="47">
+      <c r="G136" s="44">
         <v>30697.044594779531</v>
       </c>
-      <c r="H136" s="47">
+      <c r="H136" s="44">
         <f t="shared" si="2"/>
         <v>30697.044594779531</v>
       </c>
@@ -5674,8 +5674,8 @@
       <c r="F137" s="36">
         <v>1</v>
       </c>
-      <c r="G137" s="47"/>
-      <c r="H137" s="47">
+      <c r="G137" s="44"/>
+      <c r="H137" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5699,10 +5699,10 @@
       <c r="F138" s="36">
         <v>17</v>
       </c>
-      <c r="G138" s="47">
+      <c r="G138" s="44">
         <v>25918</v>
       </c>
-      <c r="H138" s="47">
+      <c r="H138" s="44">
         <f t="shared" si="2"/>
         <v>440606</v>
       </c>
@@ -5726,8 +5726,8 @@
       <c r="F139" s="36">
         <v>1</v>
       </c>
-      <c r="G139" s="47"/>
-      <c r="H139" s="47">
+      <c r="G139" s="44"/>
+      <c r="H139" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5751,10 +5751,10 @@
       <c r="F140" s="36">
         <v>17</v>
       </c>
-      <c r="G140" s="47">
+      <c r="G140" s="44">
         <v>37485</v>
       </c>
-      <c r="H140" s="47">
+      <c r="H140" s="44">
         <f t="shared" si="2"/>
         <v>637245</v>
       </c>
@@ -5778,10 +5778,10 @@
       <c r="F141" s="36">
         <v>17</v>
       </c>
-      <c r="G141" s="47">
+      <c r="G141" s="44">
         <v>31754.999999999996</v>
       </c>
-      <c r="H141" s="47">
+      <c r="H141" s="44">
         <f t="shared" si="2"/>
         <v>539834.99999999988</v>
       </c>
@@ -5805,10 +5805,10 @@
       <c r="F142" s="36">
         <v>5</v>
       </c>
-      <c r="G142" s="47">
+      <c r="G142" s="44">
         <v>67414.717095792468</v>
       </c>
-      <c r="H142" s="47">
+      <c r="H142" s="44">
         <f t="shared" si="2"/>
         <v>337073.58547896234</v>
       </c>
@@ -5832,10 +5832,10 @@
       <c r="F143" s="36">
         <v>12</v>
       </c>
-      <c r="G143" s="47">
+      <c r="G143" s="44">
         <v>31944.957912083883</v>
       </c>
-      <c r="H143" s="47">
+      <c r="H143" s="44">
         <f t="shared" si="2"/>
         <v>383339.49494500656</v>
       </c>
@@ -5859,10 +5859,10 @@
       <c r="F144" s="36">
         <v>12</v>
       </c>
-      <c r="G144" s="47">
+      <c r="G144" s="44">
         <v>144882.75623649609</v>
       </c>
-      <c r="H144" s="47">
+      <c r="H144" s="44">
         <f t="shared" si="2"/>
         <v>1738593.0748379531</v>
       </c>
@@ -5886,10 +5886,10 @@
       <c r="F145" s="36">
         <v>12</v>
       </c>
-      <c r="G145" s="47">
+      <c r="G145" s="44">
         <v>23338.256948136743</v>
       </c>
-      <c r="H145" s="47">
+      <c r="H145" s="44">
         <f t="shared" si="2"/>
         <v>280059.08337764093</v>
       </c>
@@ -5913,10 +5913,10 @@
       <c r="F146" s="36">
         <v>2</v>
       </c>
-      <c r="G146" s="47">
+      <c r="G146" s="44">
         <v>90859.733869808624</v>
       </c>
-      <c r="H146" s="47">
+      <c r="H146" s="44">
         <f t="shared" si="2"/>
         <v>181719.46773961725</v>
       </c>
@@ -5940,10 +5940,10 @@
       <c r="F147" s="36">
         <v>17</v>
       </c>
-      <c r="G147" s="47">
+      <c r="G147" s="44">
         <v>99529.805585627808</v>
       </c>
-      <c r="H147" s="47">
+      <c r="H147" s="44">
         <f t="shared" si="2"/>
         <v>1692006.6949556728</v>
       </c>
@@ -5967,10 +5967,10 @@
       <c r="F148" s="36">
         <v>1</v>
       </c>
-      <c r="G148" s="47">
+      <c r="G148" s="44">
         <v>1663472.987264412</v>
       </c>
-      <c r="H148" s="47">
+      <c r="H148" s="44">
         <f t="shared" si="2"/>
         <v>1663472.987264412</v>
       </c>
@@ -5994,8 +5994,8 @@
       <c r="F149" s="36">
         <v>1</v>
       </c>
-      <c r="G149" s="47"/>
-      <c r="H149" s="47">
+      <c r="G149" s="44"/>
+      <c r="H149" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6019,8 +6019,8 @@
       <c r="F150" s="36">
         <v>0</v>
       </c>
-      <c r="G150" s="47"/>
-      <c r="H150" s="47">
+      <c r="G150" s="44"/>
+      <c r="H150" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6044,8 +6044,8 @@
       <c r="F151" s="36">
         <v>10</v>
       </c>
-      <c r="G151" s="47"/>
-      <c r="H151" s="47">
+      <c r="G151" s="44"/>
+      <c r="H151" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6069,10 +6069,10 @@
       <c r="F152" s="36">
         <v>5</v>
       </c>
-      <c r="G152" s="47">
+      <c r="G152" s="44">
         <v>8782</v>
       </c>
-      <c r="H152" s="47">
+      <c r="H152" s="44">
         <f t="shared" si="2"/>
         <v>43910</v>
       </c>
@@ -6096,10 +6096,10 @@
       <c r="F153" s="36">
         <v>5</v>
       </c>
-      <c r="G153" s="47">
+      <c r="G153" s="44">
         <v>5891</v>
       </c>
-      <c r="H153" s="47">
+      <c r="H153" s="44">
         <f t="shared" si="2"/>
         <v>29455</v>
       </c>
@@ -6123,10 +6123,10 @@
       <c r="F154" s="36">
         <v>5</v>
       </c>
-      <c r="G154" s="47">
+      <c r="G154" s="44">
         <v>83198.663583289788</v>
       </c>
-      <c r="H154" s="47">
+      <c r="H154" s="44">
         <f t="shared" si="2"/>
         <v>415993.31791644893</v>
       </c>
@@ -6150,8 +6150,8 @@
       <c r="F155" s="36">
         <v>13</v>
       </c>
-      <c r="G155" s="47"/>
-      <c r="H155" s="47">
+      <c r="G155" s="44"/>
+      <c r="H155" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6175,10 +6175,10 @@
       <c r="F156" s="36">
         <v>2</v>
       </c>
-      <c r="G156" s="47">
+      <c r="G156" s="44">
         <v>34700</v>
       </c>
-      <c r="H156" s="47">
+      <c r="H156" s="44">
         <f t="shared" si="2"/>
         <v>69400</v>
       </c>
@@ -6202,8 +6202,8 @@
       <c r="F157" s="36">
         <v>2</v>
       </c>
-      <c r="G157" s="47"/>
-      <c r="H157" s="47">
+      <c r="G157" s="44"/>
+      <c r="H157" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6227,8 +6227,8 @@
       <c r="F158" s="36">
         <v>0</v>
       </c>
-      <c r="G158" s="47"/>
-      <c r="H158" s="47">
+      <c r="G158" s="44"/>
+      <c r="H158" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6252,10 +6252,10 @@
       <c r="F159" s="36">
         <v>1</v>
       </c>
-      <c r="G159" s="47">
+      <c r="G159" s="44">
         <v>4447197.8233018061</v>
       </c>
-      <c r="H159" s="47">
+      <c r="H159" s="44">
         <f t="shared" si="2"/>
         <v>4447197.8233018061</v>
       </c>
@@ -6279,10 +6279,10 @@
       <c r="F160" s="36">
         <v>1</v>
       </c>
-      <c r="G160" s="47">
+      <c r="G160" s="44">
         <v>4029558.6456164089</v>
       </c>
-      <c r="H160" s="47">
+      <c r="H160" s="44">
         <f t="shared" si="2"/>
         <v>4029558.6456164089</v>
       </c>
@@ -6306,10 +6306,10 @@
       <c r="F161" s="36">
         <v>1</v>
       </c>
-      <c r="G161" s="47">
+      <c r="G161" s="44">
         <v>4112764.9279447533</v>
       </c>
-      <c r="H161" s="47">
+      <c r="H161" s="44">
         <f t="shared" si="2"/>
         <v>4112764.9279447533</v>
       </c>
@@ -6333,10 +6333,10 @@
       <c r="F162" s="36">
         <v>13</v>
       </c>
-      <c r="G162" s="47">
+      <c r="G162" s="44">
         <v>45464.505368647304</v>
       </c>
-      <c r="H162" s="47">
+      <c r="H162" s="44">
         <f t="shared" si="2"/>
         <v>591038.5697924149</v>
       </c>
@@ -6360,10 +6360,10 @@
       <c r="F163" s="36">
         <v>2</v>
       </c>
-      <c r="G163" s="47">
+      <c r="G163" s="44">
         <v>34779.091234175932</v>
       </c>
-      <c r="H163" s="47">
+      <c r="H163" s="44">
         <f t="shared" si="2"/>
         <v>69558.182468351864</v>
       </c>
@@ -6387,10 +6387,10 @@
       <c r="F164" s="36">
         <v>2</v>
       </c>
-      <c r="G164" s="47">
+      <c r="G164" s="44">
         <v>17672</v>
       </c>
-      <c r="H164" s="47">
+      <c r="H164" s="44">
         <f t="shared" si="2"/>
         <v>35344</v>
       </c>
@@ -6414,10 +6414,10 @@
       <c r="F165" s="36">
         <v>2</v>
       </c>
-      <c r="G165" s="47">
+      <c r="G165" s="44">
         <v>10598.410547758811</v>
       </c>
-      <c r="H165" s="47">
+      <c r="H165" s="44">
         <f t="shared" si="2"/>
         <v>21196.821095517622</v>
       </c>
@@ -6441,10 +6441,10 @@
       <c r="F166" s="36">
         <v>10</v>
       </c>
-      <c r="G166" s="47">
+      <c r="G166" s="44">
         <v>19601.299098011739</v>
       </c>
-      <c r="H166" s="47">
+      <c r="H166" s="44">
         <f t="shared" si="2"/>
         <v>196012.99098011741</v>
       </c>
@@ -6468,10 +6468,10 @@
       <c r="F167" s="36">
         <v>17</v>
       </c>
-      <c r="G167" s="47">
+      <c r="G167" s="44">
         <v>50016.301584304339</v>
       </c>
-      <c r="H167" s="47">
+      <c r="H167" s="44">
         <f t="shared" si="2"/>
         <v>850277.12693317374</v>
       </c>
@@ -6495,10 +6495,10 @@
       <c r="F168" s="36">
         <v>17</v>
       </c>
-      <c r="G168" s="47">
+      <c r="G168" s="44">
         <v>27076.497395419832</v>
       </c>
-      <c r="H168" s="47">
+      <c r="H168" s="44">
         <f t="shared" si="2"/>
         <v>460300.45572213712</v>
       </c>
@@ -6522,10 +6522,10 @@
       <c r="F169" s="36">
         <v>4</v>
       </c>
-      <c r="G169" s="47">
+      <c r="G169" s="44">
         <v>53256.665306959403</v>
       </c>
-      <c r="H169" s="47">
+      <c r="H169" s="44">
         <f t="shared" si="2"/>
         <v>213026.66122783761</v>
       </c>
@@ -6549,10 +6549,10 @@
       <c r="F170" s="36">
         <v>4</v>
       </c>
-      <c r="G170" s="47">
+      <c r="G170" s="44">
         <v>45239.952974724525</v>
       </c>
-      <c r="H170" s="47">
+      <c r="H170" s="44">
         <f t="shared" si="2"/>
         <v>180959.8118988981</v>
       </c>
@@ -6576,8 +6576,8 @@
       <c r="F171" s="36">
         <v>1</v>
       </c>
-      <c r="G171" s="47"/>
-      <c r="H171" s="47">
+      <c r="G171" s="44"/>
+      <c r="H171" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6601,8 +6601,8 @@
       <c r="F172" s="36">
         <v>2</v>
       </c>
-      <c r="G172" s="47"/>
-      <c r="H172" s="47">
+      <c r="G172" s="44"/>
+      <c r="H172" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6626,10 +6626,10 @@
       <c r="F173" s="36">
         <v>13</v>
       </c>
-      <c r="G173" s="47">
+      <c r="G173" s="44">
         <v>105197.54364904166</v>
       </c>
-      <c r="H173" s="47">
+      <c r="H173" s="44">
         <f t="shared" si="2"/>
         <v>1367568.0674375417</v>
       </c>
@@ -6653,10 +6653,10 @@
       <c r="F174" s="36">
         <v>24</v>
       </c>
-      <c r="G174" s="47">
+      <c r="G174" s="44">
         <v>5891</v>
       </c>
-      <c r="H174" s="47">
+      <c r="H174" s="44">
         <f t="shared" si="2"/>
         <v>141384</v>
       </c>
@@ -6680,10 +6680,10 @@
       <c r="F175" s="36">
         <v>24</v>
       </c>
-      <c r="G175" s="47">
+      <c r="G175" s="44">
         <v>5780.261497677182</v>
       </c>
-      <c r="H175" s="47">
+      <c r="H175" s="44">
         <f t="shared" si="2"/>
         <v>138726.27594425238</v>
       </c>
@@ -6707,8 +6707,8 @@
       <c r="F176" s="36">
         <v>24</v>
       </c>
-      <c r="G176" s="47"/>
-      <c r="H176" s="47">
+      <c r="G176" s="44"/>
+      <c r="H176" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6732,8 +6732,8 @@
       <c r="F177" s="36">
         <v>24</v>
       </c>
-      <c r="G177" s="47"/>
-      <c r="H177" s="47">
+      <c r="G177" s="44"/>
+      <c r="H177" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6757,10 +6757,10 @@
       <c r="F178" s="36">
         <v>24</v>
       </c>
-      <c r="G178" s="47">
+      <c r="G178" s="44">
         <v>15550.555319029863</v>
       </c>
-      <c r="H178" s="47">
+      <c r="H178" s="44">
         <f t="shared" si="2"/>
         <v>373213.32765671669</v>
       </c>
@@ -6784,10 +6784,10 @@
       <c r="F179" s="36">
         <v>26</v>
       </c>
-      <c r="G179" s="47">
+      <c r="G179" s="44">
         <v>15509.615520736565</v>
       </c>
-      <c r="H179" s="47">
+      <c r="H179" s="44">
         <f t="shared" si="2"/>
         <v>403250.0035391507</v>
       </c>
@@ -6811,10 +6811,10 @@
       <c r="F180" s="36">
         <v>24</v>
       </c>
-      <c r="G180" s="47">
+      <c r="G180" s="44">
         <v>9928.174997861568</v>
       </c>
-      <c r="H180" s="47">
+      <c r="H180" s="44">
         <f t="shared" si="2"/>
         <v>238276.19994867762</v>
       </c>
@@ -6838,10 +6838,10 @@
       <c r="F181" s="36">
         <v>1</v>
       </c>
-      <c r="G181" s="47">
+      <c r="G181" s="44">
         <v>5301</v>
       </c>
-      <c r="H181" s="47">
+      <c r="H181" s="44">
         <f t="shared" si="2"/>
         <v>5301</v>
       </c>
@@ -6865,10 +6865,10 @@
       <c r="F182" s="36">
         <v>24</v>
       </c>
-      <c r="G182" s="47">
+      <c r="G182" s="44">
         <v>7227.513232663493</v>
       </c>
-      <c r="H182" s="47">
+      <c r="H182" s="44">
         <f t="shared" si="2"/>
         <v>173460.31758392384</v>
       </c>
@@ -6892,10 +6892,10 @@
       <c r="F183" s="36">
         <v>24</v>
       </c>
-      <c r="G183" s="47">
+      <c r="G183" s="44">
         <v>57278.886787125681</v>
       </c>
-      <c r="H183" s="47">
+      <c r="H183" s="44">
         <f t="shared" si="2"/>
         <v>1374693.2828910165</v>
       </c>
@@ -6919,10 +6919,10 @@
       <c r="F184" s="36">
         <v>5</v>
       </c>
-      <c r="G184" s="47">
+      <c r="G184" s="44">
         <v>27275.11873909476</v>
       </c>
-      <c r="H184" s="47">
+      <c r="H184" s="44">
         <f t="shared" si="2"/>
         <v>136375.5936954738</v>
       </c>
@@ -6946,10 +6946,10 @@
       <c r="F185" s="36">
         <v>24</v>
       </c>
-      <c r="G185" s="47">
+      <c r="G185" s="44">
         <v>13689.600970126668</v>
       </c>
-      <c r="H185" s="47">
+      <c r="H185" s="44">
         <f t="shared" si="2"/>
         <v>328550.42328304006</v>
       </c>
@@ -6973,8 +6973,8 @@
       <c r="F186" s="36">
         <v>1</v>
       </c>
-      <c r="G186" s="47"/>
-      <c r="H186" s="47">
+      <c r="G186" s="44"/>
+      <c r="H186" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6998,10 +6998,10 @@
       <c r="F187" s="36">
         <v>24</v>
       </c>
-      <c r="G187" s="47">
+      <c r="G187" s="44">
         <v>12913.034205701164</v>
       </c>
-      <c r="H187" s="47">
+      <c r="H187" s="44">
         <f t="shared" si="2"/>
         <v>309912.82093682792</v>
       </c>
@@ -7025,10 +7025,10 @@
       <c r="F188" s="36">
         <v>1</v>
       </c>
-      <c r="G188" s="47">
+      <c r="G188" s="44">
         <v>6747</v>
       </c>
-      <c r="H188" s="47">
+      <c r="H188" s="44">
         <f t="shared" si="2"/>
         <v>6747</v>
       </c>
@@ -7052,10 +7052,10 @@
       <c r="F189" s="36">
         <v>24</v>
       </c>
-      <c r="G189" s="47">
+      <c r="G189" s="44">
         <v>23618.619097802348</v>
       </c>
-      <c r="H189" s="47">
+      <c r="H189" s="44">
         <f t="shared" si="2"/>
         <v>566846.85834725632</v>
       </c>
@@ -7079,8 +7079,8 @@
       <c r="F190" s="36">
         <v>24</v>
       </c>
-      <c r="G190" s="47"/>
-      <c r="H190" s="47">
+      <c r="G190" s="44"/>
+      <c r="H190" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7104,10 +7104,10 @@
       <c r="F191" s="36">
         <v>17</v>
       </c>
-      <c r="G191" s="47">
+      <c r="G191" s="44">
         <v>16258</v>
       </c>
-      <c r="H191" s="47">
+      <c r="H191" s="44">
         <f t="shared" si="2"/>
         <v>276386</v>
       </c>
@@ -7131,10 +7131,10 @@
       <c r="F192" s="36">
         <v>24</v>
       </c>
-      <c r="G192" s="47">
+      <c r="G192" s="44">
         <v>17087.496131885622</v>
       </c>
-      <c r="H192" s="47">
+      <c r="H192" s="44">
         <f t="shared" si="2"/>
         <v>410099.90716525493</v>
       </c>
@@ -7158,8 +7158,8 @@
       <c r="F193" s="36">
         <v>1</v>
       </c>
-      <c r="G193" s="47"/>
-      <c r="H193" s="47">
+      <c r="G193" s="44"/>
+      <c r="H193" s="44">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7183,10 +7183,10 @@
       <c r="F194" s="36">
         <v>24</v>
       </c>
-      <c r="G194" s="47">
+      <c r="G194" s="44">
         <v>9101.6810845788114</v>
       </c>
-      <c r="H194" s="47">
+      <c r="H194" s="44">
         <f t="shared" si="2"/>
         <v>218440.34602989146</v>
       </c>
@@ -7210,10 +7210,10 @@
       <c r="F195" s="36">
         <v>24</v>
       </c>
-      <c r="G195" s="47">
+      <c r="G195" s="44">
         <v>33393.249435458813</v>
       </c>
-      <c r="H195" s="47">
+      <c r="H195" s="44">
         <f t="shared" si="2"/>
         <v>801437.9864510115</v>
       </c>
@@ -7237,8 +7237,8 @@
       <c r="F196" s="36">
         <v>1</v>
       </c>
-      <c r="G196" s="47"/>
-      <c r="H196" s="47">
+      <c r="G196" s="44"/>
+      <c r="H196" s="44">
         <f t="shared" ref="H196:H241" si="3">+F196*G196</f>
         <v>0</v>
       </c>
@@ -7262,10 +7262,10 @@
       <c r="F197" s="36">
         <v>24</v>
       </c>
-      <c r="G197" s="47">
+      <c r="G197" s="44">
         <v>17672</v>
       </c>
-      <c r="H197" s="47">
+      <c r="H197" s="44">
         <f t="shared" si="3"/>
         <v>424128</v>
       </c>
@@ -7289,10 +7289,10 @@
       <c r="F198" s="36">
         <v>24</v>
       </c>
-      <c r="G198" s="47">
+      <c r="G198" s="44">
         <v>19224</v>
       </c>
-      <c r="H198" s="47">
+      <c r="H198" s="44">
         <f t="shared" si="3"/>
         <v>461376</v>
       </c>
@@ -7316,10 +7316,10 @@
       <c r="F199" s="36">
         <v>24</v>
       </c>
-      <c r="G199" s="47">
+      <c r="G199" s="44">
         <v>29453</v>
       </c>
-      <c r="H199" s="47">
+      <c r="H199" s="44">
         <f t="shared" si="3"/>
         <v>706872</v>
       </c>
@@ -7343,10 +7343,10 @@
       <c r="F200" s="36">
         <v>1</v>
       </c>
-      <c r="G200" s="47">
+      <c r="G200" s="44">
         <v>32987</v>
       </c>
-      <c r="H200" s="47">
+      <c r="H200" s="44">
         <f t="shared" si="3"/>
         <v>32987</v>
       </c>
@@ -7370,10 +7370,10 @@
       <c r="F201" s="36">
         <v>1</v>
       </c>
-      <c r="G201" s="47">
+      <c r="G201" s="44">
         <v>9485.2864808675367</v>
       </c>
-      <c r="H201" s="47">
+      <c r="H201" s="44">
         <f t="shared" si="3"/>
         <v>9485.2864808675367</v>
       </c>
@@ -7397,10 +7397,10 @@
       <c r="F202" s="36">
         <v>24</v>
       </c>
-      <c r="G202" s="47">
+      <c r="G202" s="44">
         <v>10696.560503759354</v>
       </c>
-      <c r="H202" s="47">
+      <c r="H202" s="44">
         <f t="shared" si="3"/>
         <v>256717.45209022448</v>
       </c>
@@ -7424,10 +7424,10 @@
       <c r="F203" s="36">
         <v>24</v>
       </c>
-      <c r="G203" s="47">
+      <c r="G203" s="44">
         <v>31702.233409016844</v>
       </c>
-      <c r="H203" s="47">
+      <c r="H203" s="44">
         <f t="shared" si="3"/>
         <v>760853.60181640426</v>
       </c>
@@ -7451,10 +7451,10 @@
       <c r="F204" s="36">
         <v>24</v>
       </c>
-      <c r="G204" s="47">
+      <c r="G204" s="44">
         <v>23191.570151279691</v>
       </c>
-      <c r="H204" s="47">
+      <c r="H204" s="44">
         <f t="shared" si="3"/>
         <v>556597.68363071256</v>
       </c>
@@ -7478,8 +7478,8 @@
       <c r="F205" s="36">
         <v>12</v>
       </c>
-      <c r="G205" s="47"/>
-      <c r="H205" s="47">
+      <c r="G205" s="44"/>
+      <c r="H205" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7503,8 +7503,8 @@
       <c r="F206" s="36">
         <v>12</v>
       </c>
-      <c r="G206" s="47"/>
-      <c r="H206" s="47">
+      <c r="G206" s="44"/>
+      <c r="H206" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7528,10 +7528,10 @@
       <c r="F207" s="36">
         <v>1</v>
       </c>
-      <c r="G207" s="47">
+      <c r="G207" s="44">
         <v>21420</v>
       </c>
-      <c r="H207" s="47">
+      <c r="H207" s="44">
         <f t="shared" si="3"/>
         <v>21420</v>
       </c>
@@ -7555,8 +7555,8 @@
       <c r="F208" s="36">
         <v>12</v>
       </c>
-      <c r="G208" s="47"/>
-      <c r="H208" s="47">
+      <c r="G208" s="44"/>
+      <c r="H208" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7580,10 +7580,10 @@
       <c r="F209" s="36">
         <v>48</v>
       </c>
-      <c r="G209" s="47">
+      <c r="G209" s="44">
         <v>19278</v>
       </c>
-      <c r="H209" s="47">
+      <c r="H209" s="44">
         <f t="shared" si="3"/>
         <v>925344</v>
       </c>
@@ -7607,10 +7607,10 @@
       <c r="F210" s="36">
         <v>12</v>
       </c>
-      <c r="G210" s="47">
+      <c r="G210" s="44">
         <v>31040.999999999996</v>
       </c>
-      <c r="H210" s="47">
+      <c r="H210" s="44">
         <f t="shared" si="3"/>
         <v>372491.99999999994</v>
       </c>
@@ -7634,8 +7634,8 @@
       <c r="F211" s="36">
         <v>5</v>
       </c>
-      <c r="G211" s="47"/>
-      <c r="H211" s="47">
+      <c r="G211" s="44"/>
+      <c r="H211" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7659,8 +7659,8 @@
       <c r="F212" s="36">
         <v>12</v>
       </c>
-      <c r="G212" s="47"/>
-      <c r="H212" s="47">
+      <c r="G212" s="44"/>
+      <c r="H212" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7684,10 +7684,10 @@
       <c r="F213" s="36">
         <v>12</v>
       </c>
-      <c r="G213" s="47">
+      <c r="G213" s="44">
         <v>89070.852036591081</v>
       </c>
-      <c r="H213" s="47">
+      <c r="H213" s="44">
         <f t="shared" si="3"/>
         <v>1068850.2244390929</v>
       </c>
@@ -7711,10 +7711,10 @@
       <c r="F214" s="36">
         <v>12</v>
       </c>
-      <c r="G214" s="47">
+      <c r="G214" s="44">
         <v>74895</v>
       </c>
-      <c r="H214" s="47">
+      <c r="H214" s="44">
         <f t="shared" si="3"/>
         <v>898740</v>
       </c>
@@ -7738,10 +7738,10 @@
       <c r="F215" s="36">
         <v>12</v>
       </c>
-      <c r="G215" s="47">
+      <c r="G215" s="44">
         <v>37057</v>
       </c>
-      <c r="H215" s="47">
+      <c r="H215" s="44">
         <f t="shared" si="3"/>
         <v>444684</v>
       </c>
@@ -7765,10 +7765,10 @@
       <c r="F216" s="36">
         <v>12</v>
       </c>
-      <c r="G216" s="47">
+      <c r="G216" s="44">
         <v>46771.799570619783</v>
       </c>
-      <c r="H216" s="47">
+      <c r="H216" s="44">
         <f t="shared" si="3"/>
         <v>561261.59484743746</v>
       </c>
@@ -7792,10 +7792,10 @@
       <c r="F217" s="36">
         <v>12</v>
       </c>
-      <c r="G217" s="47">
+      <c r="G217" s="44">
         <v>45392.794100620471</v>
       </c>
-      <c r="H217" s="47">
+      <c r="H217" s="44">
         <f t="shared" si="3"/>
         <v>544713.52920744568</v>
       </c>
@@ -7819,10 +7819,10 @@
       <c r="F218" s="36">
         <v>12</v>
       </c>
-      <c r="G218" s="47">
+      <c r="G218" s="44">
         <v>29453</v>
       </c>
-      <c r="H218" s="47">
+      <c r="H218" s="44">
         <f t="shared" si="3"/>
         <v>353436</v>
       </c>
@@ -7846,10 +7846,10 @@
       <c r="F219" s="36">
         <v>12</v>
       </c>
-      <c r="G219" s="47">
+      <c r="G219" s="44">
         <v>48195</v>
       </c>
-      <c r="H219" s="47">
+      <c r="H219" s="44">
         <f t="shared" si="3"/>
         <v>578340</v>
       </c>
@@ -7873,10 +7873,10 @@
       <c r="F220" s="36">
         <v>12</v>
       </c>
-      <c r="G220" s="47">
+      <c r="G220" s="44">
         <v>15744</v>
       </c>
-      <c r="H220" s="47">
+      <c r="H220" s="44">
         <f t="shared" si="3"/>
         <v>188928</v>
       </c>
@@ -7900,8 +7900,8 @@
       <c r="F221" s="36">
         <v>25</v>
       </c>
-      <c r="G221" s="47"/>
-      <c r="H221" s="47">
+      <c r="G221" s="44"/>
+      <c r="H221" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7925,8 +7925,8 @@
       <c r="F222" s="36">
         <v>8</v>
       </c>
-      <c r="G222" s="47"/>
-      <c r="H222" s="47">
+      <c r="G222" s="44"/>
+      <c r="H222" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7950,10 +7950,10 @@
       <c r="F223" s="36">
         <v>12</v>
       </c>
-      <c r="G223" s="47">
+      <c r="G223" s="44">
         <v>56549</v>
       </c>
-      <c r="H223" s="47">
+      <c r="H223" s="44">
         <f t="shared" si="3"/>
         <v>678588</v>
       </c>
@@ -7977,8 +7977,8 @@
       <c r="F224" s="36">
         <v>16</v>
       </c>
-      <c r="G224" s="47"/>
-      <c r="H224" s="47">
+      <c r="G224" s="44"/>
+      <c r="H224" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -8002,10 +8002,10 @@
       <c r="F225" s="36">
         <v>12</v>
       </c>
-      <c r="G225" s="47">
+      <c r="G225" s="44">
         <v>34362</v>
       </c>
-      <c r="H225" s="47">
+      <c r="H225" s="44">
         <f t="shared" si="3"/>
         <v>412344</v>
       </c>
@@ -8029,10 +8029,10 @@
       <c r="F226" s="36">
         <v>2</v>
       </c>
-      <c r="G226" s="47">
+      <c r="G226" s="44">
         <v>175433.11361815248</v>
       </c>
-      <c r="H226" s="47">
+      <c r="H226" s="44">
         <f t="shared" si="3"/>
         <v>350866.22723630496</v>
       </c>
@@ -8056,8 +8056,8 @@
       <c r="F227" s="36">
         <v>2</v>
       </c>
-      <c r="G227" s="47"/>
-      <c r="H227" s="47">
+      <c r="G227" s="44"/>
+      <c r="H227" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -8081,8 +8081,8 @@
       <c r="F228" s="36">
         <v>2</v>
       </c>
-      <c r="G228" s="47"/>
-      <c r="H228" s="47">
+      <c r="G228" s="44"/>
+      <c r="H228" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -8106,10 +8106,10 @@
       <c r="F229" s="36">
         <v>2</v>
       </c>
-      <c r="G229" s="47">
+      <c r="G229" s="44">
         <v>69045.04607142329</v>
       </c>
-      <c r="H229" s="47">
+      <c r="H229" s="44">
         <f t="shared" si="3"/>
         <v>138090.09214284658</v>
       </c>
@@ -8133,10 +8133,10 @@
       <c r="F230" s="36">
         <v>2</v>
       </c>
-      <c r="G230" s="47">
+      <c r="G230" s="44">
         <v>85680</v>
       </c>
-      <c r="H230" s="47">
+      <c r="H230" s="44">
         <f t="shared" si="3"/>
         <v>171360</v>
       </c>
@@ -8160,8 +8160,8 @@
       <c r="F231" s="36">
         <v>2</v>
       </c>
-      <c r="G231" s="47"/>
-      <c r="H231" s="47">
+      <c r="G231" s="44"/>
+      <c r="H231" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -8185,8 +8185,8 @@
       <c r="F232" s="36">
         <v>1</v>
       </c>
-      <c r="G232" s="47"/>
-      <c r="H232" s="47">
+      <c r="G232" s="44"/>
+      <c r="H232" s="44">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -8210,10 +8210,10 @@
       <c r="F233" s="36">
         <v>1</v>
       </c>
-      <c r="G233" s="47">
+      <c r="G233" s="44">
         <v>35343</v>
       </c>
-      <c r="H233" s="47">
+      <c r="H233" s="44">
         <f t="shared" si="3"/>
         <v>35343</v>
       </c>
@@ -8237,10 +8237,10 @@
       <c r="F234" s="36">
         <v>1</v>
       </c>
-      <c r="G234" s="47">
+      <c r="G234" s="44">
         <v>35343</v>
       </c>
-      <c r="H234" s="47">
+      <c r="H234" s="44">
         <f t="shared" si="3"/>
         <v>35343</v>
       </c>
@@ -8264,10 +8264,10 @@
       <c r="F235" s="36">
         <v>32</v>
       </c>
-      <c r="G235" s="47">
+      <c r="G235" s="44">
         <v>42159.230843760721</v>
       </c>
-      <c r="H235" s="47">
+      <c r="H235" s="44">
         <f t="shared" si="3"/>
         <v>1349095.3870003431</v>
       </c>
@@ -8291,10 +8291,10 @@
       <c r="F236" s="36">
         <v>32</v>
       </c>
-      <c r="G236" s="47">
+      <c r="G236" s="44">
         <v>42159.230843760721</v>
       </c>
-      <c r="H236" s="47">
+      <c r="H236" s="44">
         <f t="shared" si="3"/>
         <v>1349095.3870003431</v>
       </c>
@@ -8318,10 +8318,10 @@
       <c r="F237" s="36">
         <v>32</v>
       </c>
-      <c r="G237" s="47">
+      <c r="G237" s="44">
         <v>57446.814457722503</v>
       </c>
-      <c r="H237" s="47">
+      <c r="H237" s="44">
         <f t="shared" si="3"/>
         <v>1838298.0626471201</v>
       </c>
@@ -8345,10 +8345,10 @@
       <c r="F238" s="36">
         <v>16</v>
       </c>
-      <c r="G238" s="47">
+      <c r="G238" s="44">
         <v>50774.614804573968</v>
       </c>
-      <c r="H238" s="47">
+      <c r="H238" s="44">
         <f t="shared" si="3"/>
         <v>812393.83687318349</v>
       </c>
@@ -8372,10 +8372,10 @@
       <c r="F239" s="36">
         <v>16</v>
       </c>
-      <c r="G239" s="47">
+      <c r="G239" s="44">
         <v>120455.86225576198</v>
       </c>
-      <c r="H239" s="47">
+      <c r="H239" s="44">
         <f t="shared" si="3"/>
         <v>1927293.7960921917</v>
       </c>
@@ -8399,10 +8399,10 @@
       <c r="F240" s="36">
         <v>16</v>
       </c>
-      <c r="G240" s="47">
+      <c r="G240" s="44">
         <v>74970</v>
       </c>
-      <c r="H240" s="47">
+      <c r="H240" s="44">
         <f t="shared" si="3"/>
         <v>1199520</v>
       </c>
@@ -8426,46 +8426,46 @@
       <c r="F241" s="36">
         <v>16</v>
       </c>
-      <c r="G241" s="47">
+      <c r="G241" s="44">
         <v>64260</v>
       </c>
-      <c r="H241" s="47">
+      <c r="H241" s="44">
         <f t="shared" si="3"/>
         <v>1028160</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H242" s="48">
+      <c r="H242" s="45">
         <f>SUM(H3:H241)</f>
         <v>196993043.03188607</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C243" s="49">
+      <c r="C243" s="46">
         <v>946485</v>
       </c>
-      <c r="D243" s="49">
+      <c r="D243" s="46">
         <f>+H242/300</f>
         <v>656643.47677295352</v>
       </c>
-      <c r="E243" s="50" t="s">
-        <v>260</v>
-      </c>
-      <c r="F243" s="48">
+      <c r="E243" s="47" t="s">
+        <v>259</v>
+      </c>
+      <c r="F243" s="45">
         <f>+C243*300</f>
         <v>283945500</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C244" s="49">
+      <c r="C244" s="46">
         <v>1419650</v>
       </c>
-      <c r="D244" s="51">
+      <c r="D244" s="48">
         <f>+H242/150</f>
         <v>1313286.953545907</v>
       </c>
-      <c r="E244" s="50" t="s">
-        <v>259</v>
+      <c r="E244" s="47" t="s">
+        <v>258</v>
       </c>
       <c r="F244" s="42"/>
     </row>

--- a/Consulta rápida/APARTADÓ PRECIOS REFERENCIA 2018.xlsx
+++ b/Consulta rápida/APARTADÓ PRECIOS REFERENCIA 2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAIME.SILVA\Documents\GitHub\FID\Dotaciones2019\Consulta rápida\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8E3B8A-697E-4A05-9DC6-C8C2EFCE191A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DDEDFB-7343-4950-91B6-96D0E73604E0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="263">
   <si>
     <t>CANTIDAD</t>
   </si>
@@ -1337,6 +1337,12 @@
   <si>
     <t>PRECIOS REFERENCIA ABASTECIMIENTO 2018</t>
   </si>
+  <si>
+    <t>ANTES</t>
+  </si>
+  <si>
+    <t>AHORA</t>
+  </si>
 </sst>
 </file>
 
@@ -1439,7 +1445,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1503,13 +1509,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1652,6 +1669,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1993,8 +2013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A239" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="F244" sqref="F244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8435,6 +8455,12 @@
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C242" s="41" t="s">
+        <v>261</v>
+      </c>
+      <c r="D242" s="52" t="s">
+        <v>262</v>
+      </c>
       <c r="H242" s="45">
         <f>SUM(H3:H241)</f>
         <v>196993043.03188607</v>
@@ -8451,10 +8477,7 @@
       <c r="E243" s="47" t="s">
         <v>259</v>
       </c>
-      <c r="F243" s="45">
-        <f>+C243*300</f>
-        <v>283945500</v>
-      </c>
+      <c r="F243" s="45"/>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C244" s="46">
